--- a/src/switch_controller_firmware/array_werte_bedeutung.xlsx
+++ b/src/switch_controller_firmware/array_werte_bedeutung.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marcelochsendorf/Desktop/em2soft/src/switch_controller_firmware/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DE0204C8-C8CC-8E46-843B-FC001FDB218B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68EE8283-DF13-C543-BAA1-AB615F581564}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="280" yWindow="460" windowWidth="28240" windowHeight="16220" xr2:uid="{F2FEAEFF-E322-5E4F-A3AC-1221EAFDFA37}"/>
+    <workbookView xWindow="280" yWindow="1340" windowWidth="28240" windowHeight="16160" xr2:uid="{F2FEAEFF-E322-5E4F-A3AC-1221EAFDFA37}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="25">
   <si>
     <t>TO_FB</t>
   </si>
@@ -90,6 +90,21 @@
   </si>
   <si>
     <t>DIRECTION</t>
+  </si>
+  <si>
+    <t>velocity 0-100</t>
+  </si>
+  <si>
+    <t>electric breaking 0-100</t>
+  </si>
+  <si>
+    <t>pneumatic brake 0-3</t>
+  </si>
+  <si>
+    <t>is ebraking</t>
+  </si>
+  <si>
+    <t>emergency</t>
   </si>
 </sst>
 </file>
@@ -451,10 +466,15 @@
   <dimension ref="A1:U9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+      <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="13" max="13" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="20" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="18.1640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
@@ -522,6 +542,21 @@
       <c r="L2" t="s">
         <v>3</v>
       </c>
+      <c r="M2" t="s">
+        <v>20</v>
+      </c>
+      <c r="N2" t="s">
+        <v>21</v>
+      </c>
+      <c r="O2" t="s">
+        <v>22</v>
+      </c>
+      <c r="P2" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A3">

--- a/src/switch_controller_firmware/array_werte_bedeutung.xlsx
+++ b/src/switch_controller_firmware/array_werte_bedeutung.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marcelochsendorf/Desktop/em2soft/src/switch_controller_firmware/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68EE8283-DF13-C543-BAA1-AB615F581564}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDF1A288-7BC9-2F46-B0B6-B79D66952BD7}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="280" yWindow="1340" windowWidth="28240" windowHeight="16160" xr2:uid="{F2FEAEFF-E322-5E4F-A3AC-1221EAFDFA37}"/>
+    <workbookView xWindow="280" yWindow="460" windowWidth="28240" windowHeight="16160" xr2:uid="{F2FEAEFF-E322-5E4F-A3AC-1221EAFDFA37}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -465,8 +465,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30BF11E9-1F64-A145-900E-B91E2B68C566}">
   <dimension ref="A1:U9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N11" sqref="N11"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
